--- a/Data_Learning_Prediction/Tuned_Parameters.xlsx
+++ b/Data_Learning_Prediction/Tuned_Parameters.xlsx
@@ -313,13 +313,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="tr-TR" baseline="0"/>
-              <a:t> Tuning NN and RF Results (</a:t>
+              <a:t> Tuning NN and RF Results (median values</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="tr-TR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>50percentile)</a:t>
+              <a:t>)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1635,7 +1635,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H9"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2106,7 +2106,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2568,7 +2568,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data_Learning_Prediction/Tuned_Parameters.xlsx
+++ b/Data_Learning_Prediction/Tuned_Parameters.xlsx
@@ -9,22 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="10548" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="1" r:id="rId1"/>
     <sheet name="NN" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NN!$A$1:$Q$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RF!$A$1:$S$10</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="71">
   <si>
     <t>Datetime</t>
   </si>
@@ -41,6 +37,9 @@
     <t>Product</t>
   </si>
   <si>
+    <t>dependenttype</t>
+  </si>
+  <si>
     <t>est</t>
   </si>
   <si>
@@ -92,34 +91,64 @@
     <t>auto</t>
   </si>
   <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>01-05 07:48</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>01-05 08:08</t>
+  </si>
+  <si>
+    <t>02-10 19:14</t>
+  </si>
+  <si>
+    <t>_345</t>
+  </si>
+  <si>
     <t>01-04 17:28</t>
   </si>
   <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>01-05 07:48</t>
-  </si>
-  <si>
-    <t>01-05 08:08</t>
-  </si>
-  <si>
     <t>01-05 08:37</t>
   </si>
   <si>
+    <t>01-05 09:13</t>
+  </si>
+  <si>
+    <t>01-06 07:48</t>
+  </si>
+  <si>
+    <t>02-11 15:19</t>
+  </si>
+  <si>
     <t>01-05 08:48</t>
   </si>
   <si>
-    <t>01-05 09:13</t>
-  </si>
-  <si>
-    <t>01-06 07:48</t>
-  </si>
-  <si>
-    <t>02-10 19:14</t>
-  </si>
-  <si>
-    <t>_345</t>
+    <t>02-11 21:54</t>
+  </si>
+  <si>
+    <t>02-13 12:17</t>
+  </si>
+  <si>
+    <t>_45</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>02-14 17:06</t>
+  </si>
+  <si>
+    <t>_234</t>
+  </si>
+  <si>
+    <t>02-14 17:18</t>
+  </si>
+  <si>
+    <t>_34</t>
   </si>
   <si>
     <t>Solver</t>
@@ -186,6 +215,24 @@
   </si>
   <si>
     <t>02-10 19:18</t>
+  </si>
+  <si>
+    <t>02-11 15:22</t>
+  </si>
+  <si>
+    <t>02-11 21:57</t>
+  </si>
+  <si>
+    <t>02-13 12:11</t>
+  </si>
+  <si>
+    <t>(30, 100, 30)</t>
+  </si>
+  <si>
+    <t>02-14 17:09</t>
+  </si>
+  <si>
+    <t>02-14 17:27</t>
   </si>
 </sst>
 </file>
@@ -548,15 +595,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,19 +661,22 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -631,211 +684,226 @@
       <c r="F2">
         <v>841810</v>
       </c>
-      <c r="H2">
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="I2">
         <v>0.75700000000000001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.75849999999999995</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2">
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2">
         <v>200</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.01</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.76200000000000001</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.76300000000000001</v>
       </c>
-      <c r="R2">
-        <v>100</v>
-      </c>
-      <c r="S2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3">
-        <v>841840</v>
-      </c>
-      <c r="H3">
-        <v>0.55800000000000005</v>
+        <v>841810</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
       </c>
       <c r="I3">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3">
-        <v>300</v>
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="J3">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
       </c>
       <c r="L3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
         <v>1E-4</v>
       </c>
-      <c r="P3">
-        <v>0.56499999999999995</v>
-      </c>
       <c r="Q3">
-        <v>0.57299999999999995</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="R3">
-        <v>100</v>
-      </c>
-      <c r="S3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="S3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>841810</v>
       </c>
-      <c r="H4">
-        <v>0.64600000000000002</v>
+      <c r="G4">
+        <v>100</v>
       </c>
       <c r="I4">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="J4">
+        <v>0.57299999999999995</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="O4">
-        <v>1E-4</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.64700000000000002</v>
+        <v>1E-3</v>
       </c>
       <c r="Q4">
-        <v>0.66100000000000003</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="R4">
-        <v>100</v>
-      </c>
-      <c r="S4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="S4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
       </c>
       <c r="F5">
         <v>841810</v>
       </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
       <c r="H5">
-        <v>0.56699999999999995</v>
+        <v>500</v>
       </c>
       <c r="I5">
-        <v>0.57299999999999995</v>
+        <v>0.66</v>
       </c>
       <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
       </c>
       <c r="L5">
-        <v>9.9999999999999995E-7</v>
+        <v>200</v>
+      </c>
+      <c r="M5">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
-      <c r="O5">
-        <v>1E-3</v>
-      </c>
       <c r="P5">
-        <v>0.56799999999999995</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q5">
-        <v>0.57399999999999995</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="R5">
-        <v>100</v>
-      </c>
-      <c r="S5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="S5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -843,105 +911,111 @@
       <c r="F6">
         <v>841840</v>
       </c>
-      <c r="H6">
-        <v>0.56100000000000005</v>
+      <c r="G6">
+        <v>100</v>
       </c>
       <c r="I6">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6">
-        <v>100</v>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="J6">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
       </c>
       <c r="L6">
+        <v>300</v>
+      </c>
+      <c r="M6">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>5</v>
       </c>
-      <c r="O6">
-        <v>1E-3</v>
-      </c>
       <c r="P6">
-        <v>0.55900000000000005</v>
+        <v>1E-4</v>
       </c>
       <c r="Q6">
         <v>0.56499999999999995</v>
       </c>
       <c r="R6">
-        <v>100</v>
-      </c>
-      <c r="S6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="S6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>841850</v>
-      </c>
-      <c r="H7">
-        <v>0.88900000000000001</v>
+        <v>841840</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
       </c>
       <c r="I7">
-        <v>0.89</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>300</v>
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
       </c>
       <c r="L7">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O7">
         <v>5</v>
       </c>
-      <c r="O7">
-        <v>0.01</v>
-      </c>
       <c r="P7">
-        <v>0.89200000000000002</v>
+        <v>1E-3</v>
       </c>
       <c r="Q7">
-        <v>0.89400000000000002</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="R7">
-        <v>100</v>
-      </c>
-      <c r="S7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="S7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -949,52 +1023,55 @@
       <c r="F8">
         <v>841850</v>
       </c>
-      <c r="H8">
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="I8">
         <v>0.76200000000000001</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.76800000000000002</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>10</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>100</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.01</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.76</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.76400000000000001</v>
       </c>
-      <c r="R8">
-        <v>100</v>
-      </c>
-      <c r="S8">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -1003,118 +1080,410 @@
         <v>841840</v>
       </c>
       <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
         <v>1000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.113</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.11600000000000001</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
       </c>
       <c r="K9">
         <v>10</v>
       </c>
       <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.01</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.111</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.115</v>
       </c>
-      <c r="R9">
+      <c r="S9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>841840</v>
+      </c>
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="S9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="H10">
+        <v>200</v>
+      </c>
+      <c r="I10">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="J10">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>1E-4</v>
+      </c>
+      <c r="Q10">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="R10">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="S10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10">
+      <c r="T10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>841850</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.89</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>300</v>
+      </c>
+      <c r="M11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>0.01</v>
+      </c>
+      <c r="Q11">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="R11">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="S11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>841850</v>
+      </c>
+      <c r="G12">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>300</v>
+      </c>
+      <c r="M12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>1E-3</v>
+      </c>
+      <c r="Q12">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="R12">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="S12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>841840</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>500</v>
+      </c>
+      <c r="I13">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="J13">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13">
+        <v>200</v>
+      </c>
+      <c r="M13">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1E-3</v>
+      </c>
+      <c r="Q13">
+        <v>0.71</v>
+      </c>
+      <c r="R13">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="S13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14">
         <v>841810</v>
       </c>
-      <c r="G10">
-        <v>500</v>
-      </c>
-      <c r="H10">
-        <v>0.66</v>
-      </c>
-      <c r="I10">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10">
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
         <v>200</v>
       </c>
-      <c r="L10">
+      <c r="I14">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="J14">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M10">
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>1E-3</v>
+      </c>
+      <c r="Q14">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="R14">
+        <v>0.74</v>
+      </c>
+      <c r="S14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>841850</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
+      <c r="I15">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="J15">
+        <v>0.93</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>200</v>
+      </c>
+      <c r="M15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="N15">
         <v>1</v>
       </c>
-      <c r="O10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="P10">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="Q10">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="R10">
-        <v>50</v>
-      </c>
-      <c r="S10">
-        <v>42</v>
+      <c r="P15">
+        <v>1E-4</v>
+      </c>
+      <c r="Q15">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="R15">
+        <v>0.93</v>
+      </c>
+      <c r="S15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S10"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="17" max="17" width="13.21875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1128,43 +1497,46 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1172,10 +1544,10 @@
         <v>841810</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1183,41 +1555,44 @@
       <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2">
         <v>1E-3</v>
       </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2">
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2">
         <v>100000</v>
       </c>
-      <c r="M2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2">
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2">
         <v>0.77600000000000002</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.77800000000000002</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.75800000000000001</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.77</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1225,10 +1600,10 @@
         <v>841840</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1236,41 +1611,44 @@
       <c r="F3">
         <v>100</v>
       </c>
-      <c r="G3">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3">
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3">
         <v>10000</v>
       </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3">
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3">
         <v>0.47799999999999998</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.48</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.47799999999999998</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1278,10 +1656,10 @@
         <v>841810</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1289,41 +1667,44 @@
       <c r="F4">
         <v>100</v>
       </c>
-      <c r="G4">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4">
         <v>1E-3</v>
       </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4">
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4">
         <v>50000</v>
       </c>
-      <c r="M4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4">
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4">
         <v>0.57699999999999996</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.59399999999999997</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.53800000000000003</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1331,10 +1712,10 @@
         <v>841810</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1342,41 +1723,44 @@
       <c r="F5">
         <v>100</v>
       </c>
-      <c r="G5">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5">
         <v>1E-3</v>
       </c>
-      <c r="K5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5">
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5">
         <v>100000</v>
       </c>
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5">
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5">
         <v>0.52500000000000002</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.52700000000000002</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.52</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1384,10 +1768,10 @@
         <v>841840</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1395,41 +1779,44 @@
       <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6">
         <v>1E-3</v>
       </c>
-      <c r="K6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6">
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6">
         <v>1000</v>
       </c>
-      <c r="M6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6">
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6">
         <v>0.47899999999999998</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.48099999999999998</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.47799999999999998</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1437,10 +1824,10 @@
         <v>841850</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -1448,41 +1835,44 @@
       <c r="F7">
         <v>100</v>
       </c>
-      <c r="G7">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7">
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7">
         <v>10000</v>
       </c>
-      <c r="M7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7">
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7">
         <v>0.84599999999999997</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.84699999999999998</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.84599999999999997</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1490,10 +1880,10 @@
         <v>841850</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -1501,41 +1891,44 @@
       <c r="F8">
         <v>100</v>
       </c>
-      <c r="G8">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8">
         <v>1E-3</v>
       </c>
-      <c r="K8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8">
+      <c r="L8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8">
         <v>5000</v>
       </c>
-      <c r="M8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8">
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.58299999999999996</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.58899999999999997</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1543,10 +1936,10 @@
         <v>841840</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -1554,41 +1947,44 @@
       <c r="F9">
         <v>100</v>
       </c>
-      <c r="G9">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9">
         <v>1E-3</v>
       </c>
-      <c r="K9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9">
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9">
         <v>1000</v>
       </c>
-      <c r="M9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9">
+      <c r="N9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9">
         <v>7.8E-2</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.08</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1596,53 +1992,335 @@
         <v>841810</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10">
         <v>50</v>
       </c>
-      <c r="G10">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10">
         <v>1E-3</v>
       </c>
-      <c r="K10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10">
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10">
         <v>100000</v>
       </c>
-      <c r="M10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10">
+      <c r="N10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10">
         <v>0.69099999999999995</v>
-      </c>
-      <c r="O10">
-        <v>0.69399999999999995</v>
       </c>
       <c r="P10">
         <v>0.69399999999999995</v>
       </c>
       <c r="Q10">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="R10">
         <v>0.71799999999999997</v>
       </c>
     </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>841840</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11">
+        <v>1E-3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11">
+        <v>100000</v>
+      </c>
+      <c r="N11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="P11">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="Q11">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="R11">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>841850</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12">
+        <v>10000</v>
+      </c>
+      <c r="N12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="P12">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="Q12">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="R12">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>841840</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13">
+        <v>100000</v>
+      </c>
+      <c r="N13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="P13">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="Q13">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>841810</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14">
+        <v>50000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14">
+        <v>0.624</v>
+      </c>
+      <c r="P14">
+        <v>0.66</v>
+      </c>
+      <c r="Q14">
+        <v>0.625</v>
+      </c>
+      <c r="R14">
+        <v>0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>841850</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15">
+        <v>1E-3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15">
+        <v>100000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15">
+        <v>0.873</v>
+      </c>
+      <c r="P15">
+        <v>0.874</v>
+      </c>
+      <c r="Q15">
+        <v>0.873</v>
+      </c>
+      <c r="R15">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q10"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data_Learning_Prediction/Tuned_Parameters.xlsx
+++ b/Data_Learning_Prediction/Tuned_Parameters.xlsx
@@ -9,18 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="10548" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21876" windowHeight="6204" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="1" r:id="rId1"/>
     <sheet name="NN" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Summary," sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Results from NN and RF" sheetId="8" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Results from NN and RF'!$A$1:$D$7</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="95">
   <si>
     <t>Datetime</t>
   </si>
@@ -151,6 +161,21 @@
     <t>_34</t>
   </si>
   <si>
+    <t>02-24 12:50</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>02-24 13:13</t>
+  </si>
+  <si>
+    <t>02-24 13:31</t>
+  </si>
+  <si>
+    <t>02-24 15:06</t>
+  </si>
+  <si>
     <t>Solver</t>
   </si>
   <si>
@@ -233,13 +258,70 @@
   </si>
   <si>
     <t>02-14 17:27</t>
+  </si>
+  <si>
+    <t>02-24 12:55</t>
+  </si>
+  <si>
+    <t>tanh</t>
+  </si>
+  <si>
+    <t>02-24 13:18</t>
+  </si>
+  <si>
+    <t>02-24 13:48</t>
+  </si>
+  <si>
+    <t>02-24 15:32</t>
+  </si>
+  <si>
+    <t>solver</t>
+  </si>
+  <si>
+    <t>activation</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>max_iteration</t>
+  </si>
+  <si>
+    <t>hidden_layer</t>
+  </si>
+  <si>
+    <t>number_of_estimate</t>
+  </si>
+  <si>
+    <t>R2 Mean for same Train Test Set</t>
+  </si>
+  <si>
+    <t>R2 Median for same Train Test Set</t>
+  </si>
+  <si>
+    <t>R2 Median for different Train Test Set</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Train Test Set</t>
+  </si>
+  <si>
+    <t>Same Set</t>
+  </si>
+  <si>
+    <t>Different Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,16 +334,29 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -284,15 +379,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,6 +426,1319 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t> After</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR" baseline="0"/>
+              <a:t> Tuning RF and NN Models  </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR" baseline="0"/>
+              <a:t>R2 Results (median values</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results from NN and RF'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Same Set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Results from NN and RF'!$A$2:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RF</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NN</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>RF</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>NN</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>RF</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>NN</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>841810</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>841810</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>841840</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>841840</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>841850</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>841850</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results from NN and RF'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.72599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1614-4C41-91BB-8EBCE7033B79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results from NN and RF'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Different Set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Results from NN and RF'!$A$2:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RF</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NN</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>RF</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>NN</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>RF</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>NN</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>841810</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>841810</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>841840</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>841840</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>841850</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>841850</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results from NN and RF'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.72599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.441</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1614-4C41-91BB-8EBCE7033B79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="619855632"/>
+        <c:axId val="619856288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="619855632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619856288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="619856288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619855632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RF"/>
+      <sheetName val="NN"/>
+      <sheetName val="Results from NN and RF"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>NN</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>RF</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>841810</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>CHN</v>
+          </cell>
+          <cell r="C2">
+            <v>0.57699999999999996</v>
+          </cell>
+          <cell r="D2">
+            <v>0.64600000000000002</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>841840</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>CHN</v>
+          </cell>
+          <cell r="C3">
+            <v>0.47899999999999998</v>
+          </cell>
+          <cell r="D3">
+            <v>0.56100000000000005</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>841850</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>CHN</v>
+          </cell>
+          <cell r="C4">
+            <v>0.84599999999999997</v>
+          </cell>
+          <cell r="D4">
+            <v>0.88900000000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>841810</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>TUR</v>
+          </cell>
+          <cell r="C5">
+            <v>0.77600000000000002</v>
+          </cell>
+          <cell r="D5">
+            <v>0.75700000000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>841840</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>TUR</v>
+          </cell>
+          <cell r="C6">
+            <v>7.8E-2</v>
+          </cell>
+          <cell r="D6">
+            <v>0.113</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>841850</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>TUR</v>
+          </cell>
+          <cell r="C7">
+            <v>0.57999999999999996</v>
+          </cell>
+          <cell r="D7">
+            <v>0.76200000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -595,16 +2026,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:S15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -1468,6 +2896,245 @@
       </c>
       <c r="T15">
         <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <v>841810</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>500</v>
+      </c>
+      <c r="I16">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="J16">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1E-4</v>
+      </c>
+      <c r="Q16">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="R16">
+        <v>0.69</v>
+      </c>
+      <c r="S16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3">
+        <v>841840</v>
+      </c>
+      <c r="G17" s="3">
+        <v>50</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T17" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="3">
+        <v>841850</v>
+      </c>
+      <c r="G18" s="3">
+        <v>75</v>
+      </c>
+      <c r="H18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="3">
+        <v>841810</v>
+      </c>
+      <c r="G19" s="3">
+        <v>50</v>
+      </c>
+      <c r="H19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="3">
+        <v>100</v>
+      </c>
+      <c r="M19" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="3">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1477,9 +3144,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1506,19 +3175,19 @@
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>0</v>
@@ -1562,22 +3231,22 @@
         <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K2">
         <v>1E-3</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M2">
         <v>100000</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="O2">
         <v>0.77600000000000002</v>
@@ -1618,22 +3287,22 @@
         <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M3">
         <v>10000</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O3">
         <v>0.47799999999999998</v>
@@ -1674,22 +3343,22 @@
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K4">
         <v>1E-3</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M4">
         <v>50000</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="O4">
         <v>0.57699999999999996</v>
@@ -1730,22 +3399,22 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K5">
         <v>1E-3</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M5">
         <v>100000</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O5">
         <v>0.52500000000000002</v>
@@ -1786,22 +3455,22 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K6">
         <v>1E-3</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M6">
         <v>1000</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O6">
         <v>0.47899999999999998</v>
@@ -1842,22 +3511,22 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K7">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M7">
         <v>10000</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O7">
         <v>0.84599999999999997</v>
@@ -1898,22 +3567,22 @@
         <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K8">
         <v>1E-3</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M8">
         <v>5000</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O8">
         <v>0.57999999999999996</v>
@@ -1954,22 +3623,22 @@
         <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K9">
         <v>1E-3</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M9">
         <v>1000</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="O9">
         <v>7.8E-2</v>
@@ -2010,22 +3679,22 @@
         <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10">
         <v>1E-3</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M10">
         <v>100000</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="O10">
         <v>0.69099999999999995</v>
@@ -2066,22 +3735,22 @@
         <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K11">
         <v>1E-3</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M11">
         <v>100000</v>
       </c>
       <c r="N11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O11">
         <v>0.47599999999999998</v>
@@ -2122,22 +3791,22 @@
         <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K12">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M12">
         <v>10000</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O12">
         <v>0.82299999999999995</v>
@@ -2178,22 +3847,22 @@
         <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K13">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="L13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M13">
         <v>100000</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O13">
         <v>0.48399999999999999</v>
@@ -2234,22 +3903,22 @@
         <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K14">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M14">
         <v>50000</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O14">
         <v>0.624</v>
@@ -2290,22 +3959,22 @@
         <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K15">
         <v>1E-3</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M15">
         <v>100000</v>
       </c>
       <c r="N15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O15">
         <v>0.873</v>
@@ -2318,9 +3987,742 @@
       </c>
       <c r="R15">
         <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>841810</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16">
+        <v>10000</v>
+      </c>
+      <c r="N16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="P16">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="Q16">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="R16">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3">
+        <v>841840</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3">
+        <v>50</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="3">
+        <v>42</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0.441</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3">
+        <v>841850</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="3">
+        <v>75</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="3">
+        <v>42</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="3">
+        <v>100000</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0.878</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>841810</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="3">
+        <v>50</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="3">
+        <v>42</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="3">
+        <v>50000</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.72399999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>841840</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>841850</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>841810</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>841810</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>841840</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>200</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>841850</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.441</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.878</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>841810</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>841810</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>841840</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>841840</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>841850</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>841850</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D7">
+    <sortState ref="A2:D7">
+      <sortCondition ref="A1:A7"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data_Learning_Prediction/Tuned_Parameters.xlsx
+++ b/Data_Learning_Prediction/Tuned_Parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21876" windowHeight="6204" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21876" windowHeight="6204" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
     <sheet name="Results from NN and RF" sheetId="8" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Results from NN and RF'!$A$1:$D$7</definedName>
   </definedNames>
@@ -321,6 +318,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,7 +410,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,7 +550,151 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.548586914440573E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-B303-4F69-BD91-5BF0E7107913}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0177781169293865E-17"/>
+                  <c:y val="-1.5485869144405695E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-B303-4F69-BD91-5BF0E7107913}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.7100271002710029E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-B303-4F69-BD91-5BF0E7107913}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1915406530791147E-3"/>
+                  <c:y val="-1.5485869144405801E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-B303-4F69-BD91-5BF0E7107913}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0957703265395573E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-B303-4F69-BD91-5BF0E7107913}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7532325224632918E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-B303-4F69-BD91-5BF0E7107913}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -661,7 +805,7 @@
             <c:numRef>
               <c:f>'Results from NN and RF'!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.72599999999999998</c:v>
@@ -715,7 +859,76 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1915406530790943E-3"/>
+                  <c:y val="1.1614401858304263E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-B303-4F69-BD91-5BF0E7107913}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.5746219592373442E-3"/>
+                  <c:y val="-3.5488040161728201E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-B303-4F69-BD91-5BF0E7107913}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.5746219592373442E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-B303-4F69-BD91-5BF0E7107913}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -825,7 +1038,7 @@
             <c:numRef>
               <c:f>'Results from NN and RF'!$D$2:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.72599999999999998</c:v>
@@ -939,7 +1152,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1631,116 +1844,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="RF"/>
-      <sheetName val="NN"/>
-      <sheetName val="Results from NN and RF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>NN</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>RF</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>841810</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>CHN</v>
-          </cell>
-          <cell r="C2">
-            <v>0.57699999999999996</v>
-          </cell>
-          <cell r="D2">
-            <v>0.64600000000000002</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>841840</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>CHN</v>
-          </cell>
-          <cell r="C3">
-            <v>0.47899999999999998</v>
-          </cell>
-          <cell r="D3">
-            <v>0.56100000000000005</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>841850</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>CHN</v>
-          </cell>
-          <cell r="C4">
-            <v>0.84599999999999997</v>
-          </cell>
-          <cell r="D4">
-            <v>0.88900000000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>841810</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>TUR</v>
-          </cell>
-          <cell r="C5">
-            <v>0.77600000000000002</v>
-          </cell>
-          <cell r="D5">
-            <v>0.75700000000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>841840</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>TUR</v>
-          </cell>
-          <cell r="C6">
-            <v>7.8E-2</v>
-          </cell>
-          <cell r="D6">
-            <v>0.113</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>841850</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>TUR</v>
-          </cell>
-          <cell r="C7">
-            <v>0.57999999999999996</v>
-          </cell>
-          <cell r="D7">
-            <v>0.76200000000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3147,7 +3250,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4588,12 +4691,12 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E25"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">

--- a/Data_Learning_Prediction/Tuned_Parameters.xlsx
+++ b/Data_Learning_Prediction/Tuned_Parameters.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murat.ozemre\Desktop\Thesis_Project\Data_Learning_Prediction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="RF" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NN" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RF" sheetId="1" r:id="rId1"/>
+    <sheet name="NN" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$D$7</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="62">
   <si>
     <t>Datetime</t>
   </si>
@@ -117,6 +128,15 @@
     <t>03-07 16:06</t>
   </si>
   <si>
+    <t>03-18 21:23</t>
+  </si>
+  <si>
+    <t>03-18 21:49</t>
+  </si>
+  <si>
+    <t>03-18 22:10</t>
+  </si>
+  <si>
     <t>Solver</t>
   </si>
   <si>
@@ -157,34 +177,78 @@
   </si>
   <si>
     <t>03-04 19:48</t>
+  </si>
+  <si>
+    <t>relu</t>
+  </si>
+  <si>
+    <t>(30, 30, 30)</t>
+  </si>
+  <si>
+    <t>03-18 21:38</t>
+  </si>
+  <si>
+    <t>03-18 21:54</t>
+  </si>
+  <si>
+    <t>identity</t>
+  </si>
+  <si>
+    <t>(10, 10)</t>
+  </si>
+  <si>
+    <t>03-18 22:15</t>
+  </si>
+  <si>
+    <t>Train Test Set</t>
+  </si>
+  <si>
+    <t>Same Set</t>
+  </si>
+  <si>
+    <t>Different Set</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>NN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -193,27 +257,1591 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t> After</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR" baseline="0"/>
+              <a:t> Tuning RF and NN Models  </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR" baseline="0"/>
+              <a:t>R2 Results (median values</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Same Set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.548586914440573E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-00FC-49D0-9B86-C52FCF303EB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0177781169293865E-17"/>
+                  <c:y val="-1.5485869144405695E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-00FC-49D0-9B86-C52FCF303EB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.7100271002710029E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-00FC-49D0-9B86-C52FCF303EB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1915406530791147E-3"/>
+                  <c:y val="-1.5485869144405801E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-00FC-49D0-9B86-C52FCF303EB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0957703265395573E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-00FC-49D0-9B86-C52FCF303EB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7532325224632918E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-00FC-49D0-9B86-C52FCF303EB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$2:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RF</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NN</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>RF</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>NN</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>RF</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>NN</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>841810</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>841810</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>841840</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>841840</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>841850</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>841850</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53550000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9225000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-00FC-49D0-9B86-C52FCF303EB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Different Set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1915406530790943E-3"/>
+                  <c:y val="1.1614401858304263E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-00FC-49D0-9B86-C52FCF303EB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.5746219592373442E-3"/>
+                  <c:y val="-3.5488040161728201E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-00FC-49D0-9B86-C52FCF303EB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.5746219592373442E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-00FC-49D0-9B86-C52FCF303EB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$2:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RF</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NN</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>RF</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>NN</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>RF</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>NN</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>841810</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>841810</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>841840</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>841840</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>841850</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>841850</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-00FC-49D0-9B86-C52FCF303EB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="619855632"/>
+        <c:axId val="619856288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="619855632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619856288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="619856288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619855632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RF"/>
+      <sheetName val="NN"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Summary,"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Results from NN and RF"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>Same Set</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Different Set</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>841810</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>RF</v>
+          </cell>
+          <cell r="C2">
+            <v>0.72599999999999998</v>
+          </cell>
+          <cell r="D2">
+            <v>0.72599999999999998</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>841810</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>NN</v>
+          </cell>
+          <cell r="C3">
+            <v>0.67500000000000004</v>
+          </cell>
+          <cell r="D3">
+            <v>0.70499999999999996</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>841840</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>RF</v>
+          </cell>
+          <cell r="C4">
+            <v>0.65</v>
+          </cell>
+          <cell r="D4">
+            <v>0.64900000000000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>841840</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>NN</v>
+          </cell>
+          <cell r="C5">
+            <v>0.45900000000000002</v>
+          </cell>
+          <cell r="D5">
+            <v>0.441</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>841850</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>RF</v>
+          </cell>
+          <cell r="C6">
+            <v>0.94</v>
+          </cell>
+          <cell r="D6">
+            <v>0.94</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>841850</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>NN</v>
+          </cell>
+          <cell r="C7">
+            <v>0.88600000000000001</v>
+          </cell>
+          <cell r="D7">
+            <v>0.878</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,20 +2128,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,8 +2199,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -588,52 +2215,51 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>841810</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>50</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>500</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.6830000000000001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6870000000000001</v>
+      <c r="I2">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="J2">
+        <v>0.68700000000000006</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>200</v>
       </c>
-      <c r="M2" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="M2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" t="s"/>
-      <c r="P2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.676</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.6860000000000001</v>
+      <c r="P2">
+        <v>1E-3</v>
+      </c>
+      <c r="Q2">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="R2">
+        <v>0.68600000000000005</v>
       </c>
       <c r="S2" t="s">
         <v>24</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -648,52 +2274,51 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>841840</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>50</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>10000</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5600000000000001</v>
+      <c r="I3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J3">
+        <v>0.56000000000000005</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>100</v>
       </c>
-      <c r="M3" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3" t="s"/>
-      <c r="P3" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.5610000000000001</v>
+      <c r="P3">
+        <v>1E-4</v>
+      </c>
+      <c r="Q3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R3">
+        <v>0.56100000000000005</v>
       </c>
       <c r="S3" t="s">
         <v>27</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -708,52 +2333,51 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>841810</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>50</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>200</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.664</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.674</v>
+      <c r="I4">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="J4">
+        <v>0.67400000000000004</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>200</v>
       </c>
-      <c r="M4" t="n">
-        <v>1e-06</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4" t="s"/>
-      <c r="P4" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.665</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.675</v>
+      <c r="P4">
+        <v>1E-4</v>
+      </c>
+      <c r="Q4">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="R4">
+        <v>0.67500000000000004</v>
       </c>
       <c r="S4" t="s">
         <v>24</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" t="s">
@@ -768,52 +2392,51 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>841850</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>100</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>10000</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.927</v>
+      <c r="I5">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="J5">
+        <v>0.92700000000000005</v>
       </c>
       <c r="K5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>200</v>
       </c>
-      <c r="M5" t="n">
-        <v>1e-06</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="O5" t="s"/>
-      <c r="P5" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.927</v>
+      <c r="P5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Q5">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="R5">
+        <v>0.92700000000000005</v>
       </c>
       <c r="S5" t="s">
         <v>27</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" t="s">
@@ -828,52 +2451,51 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>841810</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>50</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>1000</v>
       </c>
-      <c r="I6" t="n">
-        <v>0.656</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="I6">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="J6">
         <v>0.66125</v>
       </c>
       <c r="K6" t="s">
         <v>23</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>100</v>
       </c>
-      <c r="M6" t="n">
-        <v>1e-06</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="O6" t="s"/>
-      <c r="P6" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.661</v>
+      <c r="P6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Q6">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="R6">
+        <v>0.66100000000000003</v>
       </c>
       <c r="S6" t="s">
         <v>24</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" t="s">
@@ -888,52 +2510,51 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>841840</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>50</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>200</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.521</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.526</v>
+      <c r="I7">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.52600000000000002</v>
       </c>
       <c r="K7" t="s">
         <v>23</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>100</v>
       </c>
-      <c r="M7" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="O7" t="s"/>
-      <c r="P7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.519</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="P7">
+        <v>1E-3</v>
+      </c>
+      <c r="Q7">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="R7">
         <v>0.52625</v>
       </c>
       <c r="S7" t="s">
         <v>27</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" t="s">
@@ -948,70 +2569,243 @@
       <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>841850</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>100</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>200</v>
       </c>
-      <c r="I8" t="n">
-        <v>0.9215</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.92725</v>
+      <c r="I8">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.92725000000000002</v>
       </c>
       <c r="K8" t="s">
         <v>23</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>200</v>
       </c>
-      <c r="M8" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8" t="s"/>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>0.01</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0.924</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.928</v>
+      <c r="Q8">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="R8">
+        <v>0.92800000000000005</v>
       </c>
       <c r="S8" t="s">
         <v>27</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>841840</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>0.53550000000000009</v>
+      </c>
+      <c r="J9">
+        <v>0.53925000000000001</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9">
+        <v>300</v>
+      </c>
+      <c r="M9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>0.01</v>
+      </c>
+      <c r="Q9">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="R9">
+        <v>0.54</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4">
+        <v>841810</v>
+      </c>
+      <c r="G10" s="4">
+        <v>50</v>
+      </c>
+      <c r="H10" s="4">
+        <v>200</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="4">
+        <v>200</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>841850</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>0.9225000000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>1E-3</v>
+      </c>
+      <c r="Q11">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="R11">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1034,19 +2828,19 @@
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>0</v>
@@ -1064,11 +2858,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>841810</v>
       </c>
       <c r="C2" t="s">
@@ -1080,51 +2874,51 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1e-05</v>
+        <v>42</v>
+      </c>
+      <c r="K2">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2">
         <v>1000</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.548</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.641</v>
-      </c>
-      <c r="Q2" t="n">
+        <v>44</v>
+      </c>
+      <c r="O2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="P2">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="Q2">
         <v>0.32</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>0.499</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>841840</v>
       </c>
       <c r="C3" t="s">
@@ -1136,51 +2930,51 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1e-05</v>
+        <v>42</v>
+      </c>
+      <c r="K3">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" t="n">
+        <v>45</v>
+      </c>
+      <c r="M3">
         <v>50000</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.386</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.336</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.403</v>
+        <v>46</v>
+      </c>
+      <c r="O3">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="P3">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="R3">
+        <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>841810</v>
       </c>
       <c r="C4" t="s">
@@ -1192,51 +2986,51 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>50</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1e-07</v>
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" t="n">
+        <v>47</v>
+      </c>
+      <c r="M4">
         <v>1000</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" t="n">
+        <v>48</v>
+      </c>
+      <c r="O4">
         <v>0.623</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>0.627</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>0.628</v>
       </c>
-      <c r="R4" t="n">
-        <v>0.631</v>
+      <c r="R4">
+        <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>841850</v>
       </c>
       <c r="C5" t="s">
@@ -1248,47 +3042,334 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>100</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1e-07</v>
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" t="n">
+        <v>43</v>
+      </c>
+      <c r="M5">
         <v>100000</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.776</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.869</v>
-      </c>
-      <c r="R5" t="n">
+        <v>49</v>
+      </c>
+      <c r="O5">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="P5">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="Q5">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="R5">
         <v>0.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>841840</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6">
+        <v>100000</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="P6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="Q6">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="R6">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>841810</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7">
+        <v>1000</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7">
+        <v>0.374</v>
+      </c>
+      <c r="P7">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q7">
+        <v>0.374</v>
+      </c>
+      <c r="R7">
+        <v>0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>841850</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8">
+        <v>50000</v>
+      </c>
+      <c r="N8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="P8">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="Q8">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="R8">
+        <v>0.81699999999999995</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>841810</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>841810</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>0.374</v>
+      </c>
+      <c r="D3">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>841840</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>0.53550000000000009</v>
+      </c>
+      <c r="D4">
+        <v>0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>841840</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D5">
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>841850</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>0.9225000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>841850</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="D7">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D7">
+    <sortState ref="A2:D7">
+      <sortCondition ref="A1:A7"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>